--- a/data/trans_dic/P16A09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.006637422519357724</v>
+        <v>0.006637422519357723</v>
       </c>
     </row>
     <row r="5">
@@ -741,19 +741,19 @@
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01752263092457209</v>
+        <v>0.01561743129156533</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.04804251690742612</v>
+        <v>0.04656937297022913</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.009755987730134809</v>
+        <v>0.008987301872044729</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.02387627980538572</v>
+        <v>0.02538558918353059</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0.001706596779869757</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0049132769386498</v>
+        <v>0.004913276938649801</v>
       </c>
     </row>
     <row r="8">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001459135222626241</v>
+        <v>0.00145945489838485</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00211164633539474</v>
+        <v>0.002134634133401781</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0006993177247739418</v>
+        <v>0.000695991212581881</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0007716299744912725</v>
+        <v>0.0007710029792165838</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.001294613594414051</v>
+        <v>0.001272478526433353</v>
       </c>
     </row>
     <row r="9">
@@ -852,36 +852,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007799190369699775</v>
+        <v>0.007438968965859966</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01775747458013264</v>
+        <v>0.01915991026560275</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01649495277544806</v>
+        <v>0.01490513796082464</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.01209874585035068</v>
+        <v>0.01217199677202245</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01849955834827491</v>
+        <v>0.01815071754098441</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008332556304888491</v>
+        <v>0.008937622786998729</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.008355800121778492</v>
+        <v>0.009689942263835767</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.005937140084584552</v>
+        <v>0.005256016588713729</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01154615783424445</v>
+        <v>0.01240365765804392</v>
       </c>
     </row>
     <row r="10">
@@ -950,28 +950,28 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005168131922669951</v>
+        <v>0.004370883749833751</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004076300023845176</v>
+        <v>0.004093569178846568</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001473836095292238</v>
+        <v>0.001462551444017044</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006558793214135018</v>
+        <v>0.007234513936438688</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002204018996883179</v>
+        <v>0.002197849265365571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002728757241942045</v>
+        <v>0.002653527621272531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001473016806846545</v>
+        <v>0.001522085091227136</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.005170239603249218</v>
+        <v>0.004771771713397237</v>
       </c>
     </row>
     <row r="12">
@@ -983,37 +983,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.007909357189166745</v>
+        <v>0.008468154880517687</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01075984695285998</v>
+        <v>0.01234559630250004</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01336162232218849</v>
+        <v>0.01368973493877453</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02394388813710802</v>
+        <v>0.02369656367189035</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0186418466459066</v>
+        <v>0.01806268560784823</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01298871333470743</v>
+        <v>0.01440968749349912</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02253043447293619</v>
+        <v>0.02317204092111714</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01114079647137886</v>
+        <v>0.01155148771651907</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01011101655200038</v>
+        <v>0.01056833230241377</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.009271529329720692</v>
+        <v>0.009158052720151249</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01501706997580589</v>
+        <v>0.01483304950120354</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0.01662172538386775</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02350019470286431</v>
+        <v>0.02350019470286432</v>
       </c>
     </row>
     <row r="14">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009160114255519679</v>
+        <v>0.009670365931920473</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003406111896905282</v>
+        <v>0.003352390408602096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001666885868209071</v>
+        <v>0.001665174097444753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009899784961804377</v>
+        <v>0.01035746900341133</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01406026293661308</v>
+        <v>0.01435498943217137</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01476116420754833</v>
+        <v>0.01458443229560373</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01636604651611008</v>
+        <v>0.01681773771798514</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01900631495130979</v>
+        <v>0.01904329399694653</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01491786801220895</v>
+        <v>0.01439581104769724</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01135156449272872</v>
+        <v>0.01197349292395087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01034560550926416</v>
+        <v>0.0104264343417412</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01692883134195007</v>
+        <v>0.0168102863077119</v>
       </c>
     </row>
     <row r="15">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03691707029975563</v>
+        <v>0.03650602122115532</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02548204439860835</v>
+        <v>0.02334969460887059</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0136678918506119</v>
+        <v>0.01359647440280034</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03346241506817639</v>
+        <v>0.03426756095344711</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04500209252210401</v>
+        <v>0.04594236453442243</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04084773861356875</v>
+        <v>0.04254107031250164</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04353202556671885</v>
+        <v>0.04457983267502264</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03877168837108859</v>
+        <v>0.03844766093792179</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03434799959472473</v>
+        <v>0.03405775321385112</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02859037319432526</v>
+        <v>0.02836968930672074</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0256383139830425</v>
+        <v>0.02558493431134194</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03090495059610821</v>
+        <v>0.03189952836862526</v>
       </c>
     </row>
     <row r="16">
@@ -1208,40 +1208,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0501235618375557</v>
+        <v>0.05003370016572662</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01445968478336962</v>
+        <v>0.01288918482513958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01011706079143697</v>
+        <v>0.0104531518282391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0139935573270025</v>
+        <v>0.01432264828193881</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06404000187640389</v>
+        <v>0.06383489101485933</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06642295137445177</v>
+        <v>0.06656127260229656</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03869543333890824</v>
+        <v>0.03575780908572496</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05290743563070895</v>
+        <v>0.05403483875856435</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06366028318845973</v>
+        <v>0.06405108083071355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04550142840592358</v>
+        <v>0.04424494053211536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02798586960509912</v>
+        <v>0.02710304732380854</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03675779423481335</v>
+        <v>0.03711512283338849</v>
       </c>
     </row>
     <row r="18">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1061734714830751</v>
+        <v>0.1076585825596217</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04760325948897538</v>
+        <v>0.04683243233762217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04424177413852916</v>
+        <v>0.04358581844261428</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03763166547250895</v>
+        <v>0.03968029024035753</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1233955294190709</v>
+        <v>0.1222186997566067</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1234623342293751</v>
+        <v>0.1197230453428264</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07887205571106903</v>
+        <v>0.07788939043868771</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08422953305955798</v>
+        <v>0.08594898376536533</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1016770661525001</v>
+        <v>0.1035727296912514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07875457567291205</v>
+        <v>0.07648483512491089</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05313510725029993</v>
+        <v>0.05351171696551324</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05823833822532885</v>
+        <v>0.05767871784586166</v>
       </c>
     </row>
     <row r="19">
@@ -1333,7 +1333,7 @@
         <v>0.06314329990630847</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08402106552514031</v>
+        <v>0.08402106552514033</v>
       </c>
     </row>
     <row r="20">
@@ -1344,40 +1344,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03748625245176981</v>
+        <v>0.03547918767438753</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02652079256003831</v>
+        <v>0.02628391744265402</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01520878880915136</v>
+        <v>0.01477842197423165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01984613285467702</v>
+        <v>0.01844978973250103</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.121740535265177</v>
+        <v>0.1187951088026697</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1186385946484776</v>
+        <v>0.1182357286522102</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06622204569679974</v>
+        <v>0.06541022261435979</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1105073565867928</v>
+        <v>0.1077996428110292</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.088558775088333</v>
+        <v>0.08896807953098075</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08040899073875335</v>
+        <v>0.08067780805169675</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04743516479700632</v>
+        <v>0.04647060810142845</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07173676292436701</v>
+        <v>0.07041495056580785</v>
       </c>
     </row>
     <row r="21">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09270682861996551</v>
+        <v>0.08939271099625577</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07678205398435209</v>
+        <v>0.07699741909737672</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05645119185237285</v>
+        <v>0.05125325215410844</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04683363060226842</v>
+        <v>0.0478477918576358</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1945812773571498</v>
+        <v>0.1922650256262385</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1973257569538213</v>
+        <v>0.1961669695891419</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.124780375124266</v>
+        <v>0.1280122031292126</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.157142907369098</v>
+        <v>0.1568820116760636</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1368269363568969</v>
+        <v>0.1366382088059845</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1308223225280465</v>
+        <v>0.1301192225792091</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08253587998056959</v>
+        <v>0.08279161492786039</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09948548064925686</v>
+        <v>0.0986340165173881</v>
       </c>
     </row>
     <row r="22">
@@ -1445,7 +1445,7 @@
         <v>0.07609558196586508</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06815734814592354</v>
+        <v>0.06815734814592352</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1739176630062431</v>
@@ -1480,40 +1480,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1341046613494438</v>
+        <v>0.13319357332285</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0961506427330524</v>
+        <v>0.09508047498671082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05037354045985624</v>
+        <v>0.05047833186849123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04830854340781444</v>
+        <v>0.04714948300958475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1305963203612686</v>
+        <v>0.1297757329048988</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1828693183774904</v>
+        <v>0.1800467364878796</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08715307239495781</v>
+        <v>0.08711478192098106</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1207232621583296</v>
+        <v>0.1171528887433085</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1418580760386405</v>
+        <v>0.1427168582413751</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.158543134752601</v>
+        <v>0.1586136405217176</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08025610688319505</v>
+        <v>0.08028867545446064</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09599745502055131</v>
+        <v>0.0969382959616778</v>
       </c>
     </row>
     <row r="24">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2312098340964168</v>
+        <v>0.2312786785658727</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1894353955211383</v>
+        <v>0.192986832073234</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1127459219344995</v>
+        <v>0.1086032665956843</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09780263233170063</v>
+        <v>0.09456598585854102</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2169955798690159</v>
+        <v>0.2231847217035487</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2722498634671189</v>
+        <v>0.2714565380626931</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1579479215154109</v>
+        <v>0.1544407750149001</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1688319642785177</v>
+        <v>0.1677190699902979</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2085731852041962</v>
+        <v>0.2068827713195117</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2219721483378441</v>
+        <v>0.2210800105469084</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.129725475054074</v>
+        <v>0.1323708751637383</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1323060596579603</v>
+        <v>0.1335656273250022</v>
       </c>
     </row>
     <row r="25">
@@ -1605,7 +1605,7 @@
         <v>0.0259051542617142</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.037116320479046</v>
+        <v>0.03711632047904599</v>
       </c>
     </row>
     <row r="26">
@@ -1616,40 +1616,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01608019389557383</v>
+        <v>0.01638187923073816</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.009734319762949622</v>
+        <v>0.00961564697355672</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01486334504150083</v>
+        <v>0.01467415717595197</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04977522935418879</v>
+        <v>0.05081849636731924</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03139640932622004</v>
+        <v>0.03168091753870269</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04832328794271163</v>
+        <v>0.04851603351319984</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0347314749895235</v>
+        <v>0.03515344848248157</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02216109431042434</v>
+        <v>0.02195138616145598</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03359035837087793</v>
+        <v>0.03355042487460858</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02613706549615682</v>
+        <v>0.02659922339948654</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01792295999814707</v>
+        <v>0.01758910417881673</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.022909498985676</v>
+        <v>0.02297407558477227</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06629202079529145</v>
+        <v>0.06752331356736531</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04490138375912393</v>
+        <v>0.04585237790008892</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06037150712013913</v>
+        <v>0.061040983089649</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04517671547547077</v>
+        <v>0.04542755290609819</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02998434932203515</v>
+        <v>0.02995431307291747</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04093673179298146</v>
+        <v>0.04089374532262288</v>
       </c>
     </row>
     <row r="28">
@@ -2000,19 +2000,19 @@
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7523</v>
+        <v>6705</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>17416</v>
+        <v>16882</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>8609</v>
+        <v>7931</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>18392</v>
+        <v>19555</v>
       </c>
     </row>
     <row r="8">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1266</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="11">
@@ -2155,36 +2155,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5736</v>
+        <v>5471</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12186</v>
+        <v>13148</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10317</v>
+        <v>9323</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6818</v>
+        <v>6859</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9270</v>
+        <v>9095</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11340</v>
+        <v>12164</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>10825</v>
+        <v>12553</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6852</v>
+        <v>6066</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11292</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="12">
@@ -2297,28 +2297,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3565</v>
+        <v>3015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2878</v>
+        <v>2890</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4075</v>
+        <v>4495</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2926</v>
+        <v>2917</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3782</v>
+        <v>3678</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1960</v>
+        <v>2025</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6422</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="15">
@@ -2330,37 +2330,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5379</v>
+        <v>5759</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7199</v>
+        <v>8260</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8295</v>
+        <v>8499</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16515</v>
+        <v>16345</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13160</v>
+        <v>12751</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8591</v>
+        <v>9530</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13997</v>
+        <v>14396</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14788</v>
+        <v>15333</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>14014</v>
+        <v>14648</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12336</v>
+        <v>12185</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18653</v>
+        <v>18424</v>
       </c>
     </row>
     <row r="16">
@@ -2463,40 +2463,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4755</v>
+        <v>5020</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2093</v>
+        <v>2060</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6936</v>
+        <v>7257</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7250</v>
+        <v>7402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9064</v>
+        <v>8956</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10623</v>
+        <v>10916</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14005</v>
+        <v>14033</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15437</v>
+        <v>14897</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13948</v>
+        <v>14712</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13399</v>
+        <v>13504</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>24335</v>
+        <v>24165</v>
       </c>
     </row>
     <row r="19">
@@ -2507,40 +2507,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19165</v>
+        <v>18952</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15662</v>
+        <v>14351</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8830</v>
+        <v>8784</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23444</v>
+        <v>24008</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23205</v>
+        <v>23690</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25083</v>
+        <v>26123</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28256</v>
+        <v>28936</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28570</v>
+        <v>28332</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35543</v>
+        <v>35243</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>35129</v>
+        <v>34858</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33205</v>
+        <v>33136</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>44426</v>
+        <v>45856</v>
       </c>
     </row>
     <row r="20">
@@ -2643,40 +2643,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19383</v>
+        <v>19349</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6194</v>
+        <v>5521</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4835</v>
+        <v>4996</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8513</v>
+        <v>8713</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25871</v>
+        <v>25788</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29744</v>
+        <v>29806</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19226</v>
+        <v>17766</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32139</v>
+        <v>32823</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>50336</v>
+        <v>50645</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>39866</v>
+        <v>38765</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>27280</v>
+        <v>26419</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>44690</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="23">
@@ -2687,40 +2687,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41058</v>
+        <v>41633</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20391</v>
+        <v>20060</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21144</v>
+        <v>20830</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22894</v>
+        <v>24140</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>49850</v>
+        <v>49375</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>55286</v>
+        <v>53612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>39188</v>
+        <v>38699</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>51165</v>
+        <v>52210</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>80396</v>
+        <v>81895</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>69000</v>
+        <v>67012</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>51794</v>
+        <v>52161</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>70807</v>
+        <v>70126</v>
       </c>
     </row>
     <row r="24">
@@ -2823,40 +2823,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10968</v>
+        <v>10381</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8163</v>
+        <v>8090</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5085</v>
+        <v>4941</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8063</v>
+        <v>7496</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>41749</v>
+        <v>40739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>41886</v>
+        <v>41744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>25016</v>
+        <v>24709</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>48531</v>
+        <v>47342</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>56281</v>
+        <v>56541</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>53139</v>
+        <v>53316</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>33778</v>
+        <v>33091</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>60649</v>
+        <v>59531</v>
       </c>
     </row>
     <row r="27">
@@ -2867,40 +2867,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>27124</v>
+        <v>26155</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23633</v>
+        <v>23699</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18873</v>
+        <v>17135</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19027</v>
+        <v>19439</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>66729</v>
+        <v>65934</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>69668</v>
+        <v>69259</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>47137</v>
+        <v>48358</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>69012</v>
+        <v>68897</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>86956</v>
+        <v>86836</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>86454</v>
+        <v>85990</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>58773</v>
+        <v>58955</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>84109</v>
+        <v>83389</v>
       </c>
     </row>
     <row r="28">
@@ -3003,40 +3003,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>28146</v>
+        <v>27955</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>23945</v>
+        <v>23678</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12946</v>
+        <v>12973</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>14961</v>
+        <v>14602</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>43607</v>
+        <v>43333</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>70535</v>
+        <v>69447</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>34876</v>
+        <v>34861</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>55904</v>
+        <v>54251</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>77141</v>
+        <v>77608</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>100635</v>
+        <v>100680</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>52742</v>
+        <v>52763</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>74185</v>
+        <v>74912</v>
       </c>
     </row>
     <row r="31">
@@ -3047,40 +3047,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>48527</v>
+        <v>48541</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>47176</v>
+        <v>48061</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28975</v>
+        <v>27911</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>30290</v>
+        <v>29287</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>72457</v>
+        <v>74523</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>105011</v>
+        <v>104705</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>63206</v>
+        <v>61802</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>78183</v>
+        <v>77667</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>113420</v>
+        <v>112501</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>140897</v>
+        <v>140331</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>85251</v>
+        <v>86990</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>102244</v>
+        <v>103217</v>
       </c>
     </row>
     <row r="32">
@@ -3183,40 +3183,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>54981</v>
+        <v>56013</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>33042</v>
+        <v>32639</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>52475</v>
+        <v>51807</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>176460</v>
+        <v>180158</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>111286</v>
+        <v>112294</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>180315</v>
+        <v>181035</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>241881</v>
+        <v>244820</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>153773</v>
+        <v>152318</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>243930</v>
+        <v>243640</v>
       </c>
     </row>
     <row r="35">
@@ -3227,40 +3227,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>89368</v>
+        <v>90948</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>60837</v>
+        <v>59704</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>80881</v>
+        <v>81109</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>235014</v>
+        <v>239379</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>159155</v>
+        <v>162526</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>225273</v>
+        <v>227771</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>314625</v>
+        <v>316372</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>208058</v>
+        <v>207850</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>297279</v>
+        <v>296967</v>
       </c>
     </row>
     <row r="36">
